--- a/datasets/THIRD YEAR/INFT/THIRD_YEAR_INFT.xlsx
+++ b/datasets/THIRD YEAR/INFT/THIRD_YEAR_INFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nupur\Notes\College\SEMESTER 6\Mini project\datasets\THIRD YEAR\INFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A16F0-C0C7-42DA-9CD3-F1492FE895E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D90EB7-DE57-45ED-BA1E-C877A1B631F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A87D7390-0F7B-4963-9D14-CD85CD8CB2A4}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="13008" windowHeight="8964" activeTab="1" xr2:uid="{A87D7390-0F7B-4963-9D14-CD85CD8CB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="INFT_SEM5" sheetId="1" r:id="rId1"/>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC870B-FE35-4F20-923C-2CABEEBFDC3E}">
   <dimension ref="A1:AD141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="X2" s="1">
         <f ca="1">RANDBETWEEN(60,70)</f>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="1">
         <f ca="1">RANDBETWEEN(60,70)</f>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:AB7" ca="1" si="0">RANDBETWEEN(60,70)</f>
@@ -1180,18 +1180,18 @@
       </c>
       <c r="AA2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="1">
         <v>0</v>
       </c>
       <c r="AD2">
         <f ca="1">(SUM(H2,K2,N2,Q2,T2,X2,Y2,Z2,AA2,AB2)/5)/9.5</f>
-        <v>8.5789473684210531</v>
+        <v>8.5157894736842117</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -1271,30 +1271,30 @@
       </c>
       <c r="X3" s="1">
         <f t="shared" ref="X3:Y7" ca="1" si="6">RANDBETWEEN(60,70)</f>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AC3" s="1">
         <v>0</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD13" ca="1" si="7">(SUM(H3,K3,N3,Q3,T3,X3,Y3,Z3,AA3,AB3)/5)/9.5</f>
-        <v>8.1157894736842096</v>
+        <v>8.473684210526315</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -1374,15 +1374,15 @@
       </c>
       <c r="X4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AB4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4631578947368435</v>
+        <v>8.6105263157894729</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -1477,11 +1477,11 @@
       </c>
       <c r="X5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -1489,18 +1489,18 @@
       </c>
       <c r="AA5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="1">
         <v>0</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6315789473684212</v>
+        <v>8.4631578947368435</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -1580,30 +1580,30 @@
       </c>
       <c r="X6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="1">
         <v>0</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4315789473684202</v>
+        <v>8.3473684210526304</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -1786,30 +1786,30 @@
       </c>
       <c r="X8" s="1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" ref="Y8:AB12" ca="1" si="8">RANDBETWEEN(70,80)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="7"/>
-        <v>9.4</v>
+        <v>9.2947368421052623</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -1889,30 +1889,30 @@
       </c>
       <c r="X9" s="1">
         <f t="shared" ref="X9:X12" ca="1" si="9">RANDBETWEEN(70,80)</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AC9" s="1">
         <v>0</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="7"/>
-        <v>9.3368421052631589</v>
+        <v>9.2526315789473692</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -1992,30 +1992,30 @@
       </c>
       <c r="X10" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="7"/>
-        <v>8.9473684210526319</v>
+        <v>9.3263157894736839</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -2095,30 +2095,30 @@
       </c>
       <c r="X11" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="7"/>
-        <v>9.6631578947368411</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -2198,30 +2198,30 @@
       </c>
       <c r="X12" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AC12" s="1">
         <v>0</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="7"/>
-        <v>9.6105263157894729</v>
+        <v>9.715789473684211</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -2302,30 +2302,30 @@
       </c>
       <c r="X13" s="1">
         <f ca="1">RANDBETWEEN(30,70)</f>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" ref="Y13:AA25" ca="1" si="10">RANDBETWEEN(30,70)</f>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="1">
         <f ca="1">RANDBETWEEN(30,70)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AC13" s="1">
         <v>0</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9789473684210526</v>
+        <v>7.5368421052631573</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="X14" s="1">
         <f t="shared" ref="X14:X25" ca="1" si="12">RANDBETWEEN(30,70)</f>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -2414,22 +2414,22 @@
       </c>
       <c r="Z14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" ref="AC14:AC25" ca="1" si="13">RANDBETWEEN(30,70)</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AD14">
         <f ca="1">(SUM(H14,K14,N14,Q14,W14,X14,Y14,Z14,AA14,AC14)/5)/9.5</f>
-        <v>6.9052631578947361</v>
+        <v>6.1684210526315795</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -2510,30 +2510,30 @@
       </c>
       <c r="X15" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="AD15">
         <f t="shared" ref="AD15:AD25" ca="1" si="15">(SUM(H15,K15,N15,Q15,W15,X15,Y15,Z15,AA15,AC15)/5)/9.5</f>
-        <v>6.7684210526315782</v>
+        <v>6.9578947368421042</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
@@ -2614,30 +2614,30 @@
       </c>
       <c r="X16" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="15"/>
-        <v>7.7052631578947368</v>
+        <v>5.4947368421052634</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
@@ -2718,30 +2718,30 @@
       </c>
       <c r="X17" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="15"/>
-        <v>7.9052631578947361</v>
+        <v>7.1263157894736846</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
@@ -2822,30 +2822,30 @@
       </c>
       <c r="X18" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB18" s="1">
         <v>0</v>
       </c>
       <c r="AC18" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AD18">
         <f t="shared" ca="1" si="15"/>
-        <v>7.1157894736842096</v>
+        <v>6.1263157894736846</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
@@ -2926,30 +2926,30 @@
       </c>
       <c r="X19" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AD19">
         <f t="shared" ca="1" si="15"/>
-        <v>6.1052631578947372</v>
+        <v>6.7157894736842101</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
@@ -3030,30 +3030,30 @@
       </c>
       <c r="X20" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AB20" s="1">
         <v>0</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AD20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.7684210526315782</v>
+        <v>6.6736842105263152</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
@@ -3134,30 +3134,30 @@
       </c>
       <c r="X21" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="AB21" s="1">
         <v>0</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AD21">
         <f t="shared" ca="1" si="15"/>
-        <v>6.9894736842105267</v>
+        <v>6.8631578947368421</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
@@ -3238,30 +3238,30 @@
       </c>
       <c r="X22" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AB22" s="1">
         <v>0</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AD22">
         <f t="shared" ca="1" si="15"/>
-        <v>7.0421052631578958</v>
+        <v>6.0315789473684207</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
@@ -3342,30 +3342,30 @@
       </c>
       <c r="X23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AD23">
         <f t="shared" ca="1" si="15"/>
-        <v>6.1368421052631579</v>
+        <v>6.4105263157894736</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
@@ -3446,30 +3446,30 @@
       </c>
       <c r="X24" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="AD24">
         <f t="shared" ca="1" si="15"/>
-        <v>6.6947368421052635</v>
+        <v>6.6315789473684212</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -3550,30 +3550,30 @@
       </c>
       <c r="X25" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
       </c>
       <c r="AC25" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AD25">
         <f t="shared" ca="1" si="15"/>
-        <v>7.189473684210526</v>
+        <v>6.2631578947368425</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="Y26" s="1">
         <f t="shared" ref="Y26:AB31" ca="1" si="16">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -3666,18 +3666,18 @@
       </c>
       <c r="AA26" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AC26" s="1">
         <v>0</v>
       </c>
       <c r="AD26">
         <f ca="1">(SUM(H26,K26,N26,Q26,T26,X26,Y26,Z26,AA26,AB26)/5)/9.5</f>
-        <v>9.3263157894736839</v>
+        <v>9.3052631578947373</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
@@ -3758,30 +3758,30 @@
       </c>
       <c r="X27" s="1">
         <f t="shared" ref="X27:X31" ca="1" si="18">RANDBETWEEN(70,80)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC27" s="1">
         <v>0</v>
       </c>
       <c r="AD27">
         <f t="shared" ref="AD27:AD90" ca="1" si="19">(SUM(H27,K27,N27,Q27,T27,X27,Y27,Z27,AA27,AB27)/5)/9.5</f>
-        <v>9.3052631578947373</v>
+        <v>9.0315789473684216</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
@@ -3862,30 +3862,30 @@
       </c>
       <c r="X28" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AC28" s="1">
         <v>0</v>
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="19"/>
-        <v>9.4210526315789469</v>
+        <v>9.378947368421052</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
@@ -3966,30 +3966,30 @@
       </c>
       <c r="X29" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AC29" s="1">
         <v>0</v>
       </c>
       <c r="AD29">
         <f t="shared" ca="1" si="19"/>
-        <v>9.2421052631578942</v>
+        <v>9.0526315789473681</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
@@ -4070,30 +4070,30 @@
       </c>
       <c r="X30" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC30" s="1">
         <v>0</v>
       </c>
       <c r="AD30">
         <f t="shared" ca="1" si="19"/>
-        <v>9.5052631578947366</v>
+        <v>9.3157894736842106</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -4174,30 +4174,30 @@
       </c>
       <c r="X31" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="19"/>
-        <v>9.4421052631578952</v>
+        <v>9.6736842105263161</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="X32" s="1">
         <f ca="1">RANDBETWEEN(20,80)</f>
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" ref="Y32:AB47" ca="1" si="20">RANDBETWEEN(20,80)</f>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="Z32" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="19"/>
-        <v>6.3473684210526313</v>
+        <v>5.7368421052631575</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
@@ -4382,30 +4382,30 @@
       </c>
       <c r="X33" s="1">
         <f t="shared" ref="X33:AB95" ca="1" si="21">RANDBETWEEN(20,80)</f>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AC33" s="1">
         <v>0</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="19"/>
-        <v>8.0526315789473681</v>
+        <v>6.3684210526315788</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
@@ -4486,30 +4486,30 @@
       </c>
       <c r="X34" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AC34" s="1">
         <v>0</v>
       </c>
       <c r="AD34">
         <f t="shared" ca="1" si="19"/>
-        <v>6.0105263157894742</v>
+        <v>7.9263157894736835</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
@@ -4590,30 +4590,30 @@
       </c>
       <c r="X35" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AC35" s="1">
         <v>0</v>
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="19"/>
-        <v>7.6526315789473687</v>
+        <v>7.1052631578947372</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
@@ -4694,30 +4694,30 @@
       </c>
       <c r="X36" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AC36" s="1">
         <v>0</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>6.5473684210526315</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
@@ -4798,30 +4798,30 @@
       </c>
       <c r="X37" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AC37" s="1">
         <v>0</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="19"/>
-        <v>7.2842105263157899</v>
+        <v>6.5263157894736841</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
@@ -4902,30 +4902,30 @@
       </c>
       <c r="X38" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AC38" s="1">
         <v>0</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2526315789473683</v>
+        <v>6.6315789473684212</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
@@ -5006,30 +5006,30 @@
       </c>
       <c r="X39" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AC39" s="1">
         <v>0</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="19"/>
-        <v>7.1578947368421053</v>
+        <v>6.3368421052631581</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
@@ -5114,26 +5114,26 @@
       </c>
       <c r="Y40" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="AC40" s="1">
         <v>0</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="19"/>
-        <v>5.6000000000000005</v>
+        <v>6.6947368421052635</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
@@ -5214,30 +5214,30 @@
       </c>
       <c r="X41" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AC41" s="1">
         <v>0</v>
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="19"/>
-        <v>7.5052631578947366</v>
+        <v>7.3578947368421055</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
@@ -5318,30 +5318,30 @@
       </c>
       <c r="X42" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC42" s="1">
         <v>0</v>
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2526315789473683</v>
+        <v>7.3052631578947373</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
@@ -5422,30 +5422,30 @@
       </c>
       <c r="X43" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AC43" s="1">
         <v>0</v>
       </c>
       <c r="AD43">
         <f t="shared" ca="1" si="19"/>
-        <v>8.189473684210526</v>
+        <v>5.7052631578947368</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
@@ -5526,30 +5526,30 @@
       </c>
       <c r="X44" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" s="1">
         <v>0</v>
       </c>
       <c r="AD44">
         <f t="shared" ca="1" si="19"/>
-        <v>6.1684210526315795</v>
+        <v>5.6421052631578945</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
@@ -5630,30 +5630,30 @@
       </c>
       <c r="X45" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="AC45" s="1">
         <v>0</v>
       </c>
       <c r="AD45">
         <f t="shared" ca="1" si="19"/>
-        <v>7.0526315789473681</v>
+        <v>5.8947368421052628</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
@@ -5734,30 +5734,30 @@
       </c>
       <c r="X46" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="AC46" s="1">
         <v>0</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="19"/>
-        <v>6.0631578947368423</v>
+        <v>5.4526315789473685</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
@@ -5838,30 +5838,30 @@
       </c>
       <c r="X47" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AC47" s="1">
         <v>0</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="19"/>
-        <v>6.3368421052631581</v>
+        <v>6.7789473684210533</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
@@ -5942,30 +5942,30 @@
       </c>
       <c r="X48" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AC48" s="1">
         <v>0</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="19"/>
-        <v>7.3052631578947373</v>
+        <v>5.1368421052631579</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="X49" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AC49" s="1">
         <v>0</v>
       </c>
       <c r="AD49">
         <f t="shared" ca="1" si="19"/>
-        <v>7.9578947368421042</v>
+        <v>7.2210526315789467</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
@@ -6150,30 +6150,30 @@
       </c>
       <c r="X50" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="AC50" s="1">
         <v>0</v>
       </c>
       <c r="AD50">
         <f t="shared" ca="1" si="19"/>
-        <v>5.3157894736842106</v>
+        <v>7.2105263157894735</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
@@ -6254,30 +6254,30 @@
       </c>
       <c r="X51" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AC51" s="1">
         <v>0</v>
       </c>
       <c r="AD51">
         <f t="shared" ca="1" si="19"/>
-        <v>7.2</v>
+        <v>6.8631578947368421</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
@@ -6358,30 +6358,30 @@
       </c>
       <c r="X52" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="Z52" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA52" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="AB52" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AC52" s="1">
         <v>0</v>
       </c>
       <c r="AD52">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4842105263157892</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
@@ -6462,30 +6462,30 @@
       </c>
       <c r="X53" s="1">
         <f t="shared" ca="1" si="21"/>
+        <v>33</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="Z53" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="AA53" s="1">
+        <f t="shared" ca="1" si="21"/>
         <v>79</v>
       </c>
-      <c r="Y53" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>61</v>
-      </c>
-      <c r="Z53" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>62</v>
-      </c>
-      <c r="AA53" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>37</v>
-      </c>
       <c r="AB53" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AC53" s="1">
         <v>0</v>
       </c>
       <c r="AD53">
         <f t="shared" ca="1" si="19"/>
-        <v>8.4105263157894736</v>
+        <v>6.9368421052631586</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
@@ -6566,30 +6566,30 @@
       </c>
       <c r="X54" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Z54" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="AA54" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AB54" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AC54" s="1">
         <v>0</v>
       </c>
       <c r="AD54">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8947368421052628</v>
+        <v>8.0736842105263165</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="X55" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC55" s="1">
         <v>0</v>
       </c>
       <c r="AD55">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8210526315789473</v>
+        <v>7.5368421052631573</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
@@ -6774,30 +6774,30 @@
       </c>
       <c r="X56" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="Y56" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Z56" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA56" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AB56" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="AC56" s="1">
         <v>0</v>
       </c>
       <c r="AD56">
         <f t="shared" ca="1" si="19"/>
-        <v>7.3894736842105262</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
@@ -6878,30 +6878,30 @@
       </c>
       <c r="X57" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="Y57" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z57" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="AA57" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB57" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AC57" s="1">
         <v>0</v>
       </c>
       <c r="AD57">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2526315789473683</v>
+        <v>6.1684210526315795</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
@@ -6982,30 +6982,30 @@
       </c>
       <c r="X58" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Y58" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="Z58" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AA58" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB58" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AC58" s="1">
         <v>0</v>
       </c>
       <c r="AD58">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4947368421052634</v>
+        <v>6.3894736842105262</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
@@ -7086,30 +7086,30 @@
       </c>
       <c r="X59" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="Y59" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Z59" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AA59" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AB59" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="AC59" s="1">
         <v>0</v>
       </c>
       <c r="AD59">
         <f t="shared" ca="1" si="19"/>
-        <v>7.0736842105263165</v>
+        <v>8.0631578947368414</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
@@ -7190,30 +7190,30 @@
       </c>
       <c r="X60" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Y60" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="Z60" s="1">
         <f t="shared" ca="1" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="AA60" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>35</v>
+      </c>
+      <c r="AB60" s="1">
+        <f t="shared" ca="1" si="21"/>
         <v>63</v>
-      </c>
-      <c r="AA60" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>79</v>
-      </c>
-      <c r="AB60" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>29</v>
       </c>
       <c r="AC60" s="1">
         <v>0</v>
       </c>
       <c r="AD60">
         <f t="shared" ca="1" si="19"/>
-        <v>6.7263157894736842</v>
+        <v>7.147368421052632</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
@@ -7294,30 +7294,30 @@
       </c>
       <c r="X61" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y61" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Z61" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AA61" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AB61" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC61" s="1">
         <v>0</v>
       </c>
       <c r="AD61">
         <f t="shared" ca="1" si="19"/>
-        <v>5.0315789473684207</v>
+        <v>5.2210526315789476</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
@@ -7398,30 +7398,30 @@
       </c>
       <c r="X62" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Y62" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="Z62" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="AA62" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AB62" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AC62" s="1">
         <v>0</v>
       </c>
       <c r="AD62">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4526315789473685</v>
+        <v>6.810526315789474</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
@@ -7502,30 +7502,30 @@
       </c>
       <c r="X63" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" ca="1" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="Z63" s="1">
+        <f t="shared" ca="1" si="21"/>
         <v>68</v>
       </c>
-      <c r="Z63" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>67</v>
-      </c>
       <c r="AA63" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AB63" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="AC63" s="1">
         <v>0</v>
       </c>
       <c r="AD63">
         <f t="shared" ca="1" si="19"/>
-        <v>8.2421052631578942</v>
+        <v>6.2631578947368425</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
@@ -7606,30 +7606,30 @@
       </c>
       <c r="X64" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="Y64" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AA64" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="AB64" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AC64" s="1">
         <v>0</v>
       </c>
       <c r="AD64">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2631578947368425</v>
+        <v>7.0421052631578958</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
@@ -7710,30 +7710,30 @@
       </c>
       <c r="X65" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="Y65" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Z65" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA65" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AB65" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AC65" s="1">
         <v>0</v>
       </c>
       <c r="AD65">
         <f t="shared" ca="1" si="19"/>
-        <v>8.4631578947368435</v>
+        <v>7.0315789473684207</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
@@ -7814,30 +7814,30 @@
       </c>
       <c r="X66" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="Z66" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AA66" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="AB66" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AC66" s="1">
         <v>0</v>
       </c>
       <c r="AD66">
         <f t="shared" ca="1" si="19"/>
-        <v>7.5684210526315798</v>
+        <v>7.1263157894736846</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
@@ -7918,30 +7918,30 @@
       </c>
       <c r="X67" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Z67" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AA67" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AB67" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AC67" s="1">
         <v>0</v>
       </c>
       <c r="AD67">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2947368421052632</v>
+        <v>6.5473684210526315</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
@@ -8022,30 +8022,30 @@
       </c>
       <c r="X68" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Y68" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Z68" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA68" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="AB68" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AC68" s="1">
         <v>0</v>
       </c>
       <c r="AD68">
         <f t="shared" ca="1" si="19"/>
-        <v>6.852631578947368</v>
+        <v>6.9368421052631586</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
@@ -8126,30 +8126,30 @@
       </c>
       <c r="X69" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y69" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Z69" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="AA69" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AB69" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="AC69" s="1">
         <v>0</v>
       </c>
       <c r="AD69">
         <f t="shared" ca="1" si="19"/>
-        <v>6.094736842105263</v>
+        <v>6.1368421052631579</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
@@ -8230,30 +8230,30 @@
       </c>
       <c r="X70" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="Y70" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="Z70" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AA70" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="AB70" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AC70" s="1">
         <v>0</v>
       </c>
       <c r="AD70">
         <f t="shared" ca="1" si="19"/>
-        <v>7.2947368421052632</v>
+        <v>7.378947368421052</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
@@ -8338,26 +8338,26 @@
       </c>
       <c r="Y71" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="Z71" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="AA71" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="AB71" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC71" s="1">
         <v>0</v>
       </c>
       <c r="AD71">
         <f t="shared" ca="1" si="19"/>
-        <v>7.1157894736842096</v>
+        <v>7.6842105263157894</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
@@ -8438,30 +8438,30 @@
       </c>
       <c r="X72" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Y72" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="Z72" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AA72" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="AB72" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC72" s="1">
         <v>0</v>
       </c>
       <c r="AD72">
         <f t="shared" ca="1" si="19"/>
-        <v>5.1684210526315795</v>
+        <v>7.0842105263157888</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
@@ -8542,19 +8542,19 @@
       </c>
       <c r="X73" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Y73" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="Z73" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="AA73" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="AB73" s="1">
         <f t="shared" ca="1" si="21"/>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="AD73">
         <f t="shared" ca="1" si="19"/>
-        <v>6.6000000000000005</v>
+        <v>5.8842105263157896</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
@@ -8646,30 +8646,30 @@
       </c>
       <c r="X74" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Y74" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="Z74" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="AA74" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AB74" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AC74" s="1">
         <v>0</v>
       </c>
       <c r="AD74">
         <f t="shared" ca="1" si="19"/>
-        <v>6.9368421052631586</v>
+        <v>6.3263157894736848</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
@@ -8750,30 +8750,30 @@
       </c>
       <c r="X75" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="Y75" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="Z75" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AA75" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="AB75" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC75" s="1">
         <v>0</v>
       </c>
       <c r="AD75">
         <f t="shared" ca="1" si="19"/>
-        <v>7.2421052631578942</v>
+        <v>5.4315789473684211</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
@@ -8854,30 +8854,30 @@
       </c>
       <c r="X76" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y76" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="Z76" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA76" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB76" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC76" s="1">
         <v>0</v>
       </c>
       <c r="AD76">
         <f t="shared" ca="1" si="19"/>
-        <v>7.3368421052631581</v>
+        <v>5.5473684210526315</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
@@ -8958,30 +8958,30 @@
       </c>
       <c r="X77" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Z77" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA77" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB77" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AC77" s="1">
         <v>0</v>
       </c>
       <c r="AD77">
         <f t="shared" ca="1" si="19"/>
-        <v>5.5263157894736841</v>
+        <v>5.9473684210526319</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
@@ -9062,30 +9062,30 @@
       </c>
       <c r="X78" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="Z78" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA78" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB78" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="AC78" s="1">
         <v>0</v>
       </c>
       <c r="AD78">
         <f t="shared" ca="1" si="19"/>
-        <v>7.0526315789473681</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
@@ -9166,30 +9166,30 @@
       </c>
       <c r="X79" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y79" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="Z79" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AA79" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="AB79" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AC79" s="1">
         <v>0</v>
       </c>
       <c r="AD79">
         <f t="shared" ca="1" si="19"/>
-        <v>6.0105263157894742</v>
+        <v>7.4631578947368427</v>
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
@@ -9270,30 +9270,30 @@
       </c>
       <c r="X80" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Y80" s="1">
         <f t="shared" ca="1" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="Z80" s="1">
+        <f t="shared" ca="1" si="21"/>
         <v>30</v>
       </c>
-      <c r="Z80" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>42</v>
-      </c>
       <c r="AA80" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="AB80" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AC80" s="1">
         <v>0</v>
       </c>
       <c r="AD80">
         <f t="shared" ca="1" si="19"/>
-        <v>7.0631578947368414</v>
+        <v>5.5052631578947366</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
@@ -9374,30 +9374,30 @@
       </c>
       <c r="X81" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="Y81" s="1">
         <f t="shared" ca="1" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="Z81" s="1">
+        <f t="shared" ca="1" si="21"/>
         <v>76</v>
       </c>
-      <c r="Z81" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>35</v>
-      </c>
       <c r="AA81" s="1">
         <f t="shared" ca="1" si="21"/>
         <v>75</v>
       </c>
       <c r="AB81" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="AC81" s="1">
         <v>0</v>
       </c>
       <c r="AD81">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8947368421052628</v>
+        <v>8.4526315789473685</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
@@ -9478,30 +9478,30 @@
       </c>
       <c r="X82" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Y82" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z82" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AA82" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB82" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AC82" s="1">
         <v>0</v>
       </c>
       <c r="AD82">
         <f t="shared" ca="1" si="19"/>
-        <v>6.7263157894736842</v>
+        <v>5.9894736842105258</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
@@ -9582,30 +9582,30 @@
       </c>
       <c r="X83" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y83" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Z83" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA83" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AB83" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AC83" s="1">
         <v>0</v>
       </c>
       <c r="AD83">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8315789473684214</v>
+        <v>6.4526315789473685</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
@@ -9686,30 +9686,30 @@
       </c>
       <c r="X84" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y84" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Z84" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="AA84" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB84" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AC84" s="1">
         <v>0</v>
       </c>
       <c r="AD84">
         <f t="shared" ca="1" si="19"/>
-        <v>5.1368421052631579</v>
+        <v>4.9473684210526319</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
@@ -9790,30 +9790,30 @@
       </c>
       <c r="X85" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="Y85" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Z85" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AA85" s="1">
         <f t="shared" ca="1" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="AB85" s="1">
+        <f t="shared" ca="1" si="21"/>
         <v>54</v>
-      </c>
-      <c r="AB85" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>62</v>
       </c>
       <c r="AC85" s="1">
         <v>0</v>
       </c>
       <c r="AD85">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8315789473684214</v>
+        <v>7.2947368421052632</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
@@ -9894,30 +9894,30 @@
       </c>
       <c r="X86" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="Y86" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Z86" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="AA86" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="AB86" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC86" s="1">
         <v>0</v>
       </c>
       <c r="AD86">
         <f t="shared" ca="1" si="19"/>
-        <v>6.0736842105263165</v>
+        <v>6.4315789473684211</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
@@ -9998,30 +9998,30 @@
       </c>
       <c r="X87" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Y87" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z87" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AA87" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AB87" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC87" s="1">
         <v>0</v>
       </c>
       <c r="AD87">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4842105263157892</v>
+        <v>6.6105263157894738</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
@@ -10102,30 +10102,30 @@
       </c>
       <c r="X88" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="Y88" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Z88" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA88" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="AB88" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AC88" s="1">
         <v>0</v>
       </c>
       <c r="AD88">
         <f t="shared" ca="1" si="19"/>
-        <v>8.094736842105263</v>
+        <v>8.284210526315789</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
@@ -10206,30 +10206,30 @@
       </c>
       <c r="X89" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="Y89" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="Z89" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AA89" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AB89" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AC89" s="1">
         <v>0</v>
       </c>
       <c r="AD89">
         <f t="shared" ca="1" si="19"/>
-        <v>5.8210526315789473</v>
+        <v>8.1789473684210527</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
@@ -10310,30 +10310,30 @@
       </c>
       <c r="X90" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y90" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Z90" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AA90" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AB90" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AC90" s="1">
         <v>0</v>
       </c>
       <c r="AD90">
         <f t="shared" ca="1" si="19"/>
-        <v>7.1157894736842096</v>
+        <v>7.7052631578947368</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
@@ -10414,30 +10414,30 @@
       </c>
       <c r="X91" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="Y91" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="Z91" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AA91" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="AB91" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC91" s="1">
         <v>0</v>
       </c>
       <c r="AD91">
         <f t="shared" ref="AD91:AD95" ca="1" si="28">(SUM(H91,K91,N91,Q91,T91,X91,Y91,Z91,AA91,AB91)/5)/9.5</f>
-        <v>7.4736842105263159</v>
+        <v>5.4315789473684211</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
@@ -10518,30 +10518,30 @@
       </c>
       <c r="X92" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Y92" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="Z92" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AA92" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AB92" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC92" s="1">
         <v>0</v>
       </c>
       <c r="AD92">
         <f t="shared" ca="1" si="28"/>
-        <v>6.7789473684210533</v>
+        <v>5.8736842105263154</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
@@ -10622,30 +10622,30 @@
       </c>
       <c r="X93" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="Y93" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z93" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AA93" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AB93" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AC93" s="1">
         <v>0</v>
       </c>
       <c r="AD93">
         <f t="shared" ca="1" si="28"/>
-        <v>7.9263157894736835</v>
+        <v>7.378947368421052</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
@@ -10726,30 +10726,30 @@
       </c>
       <c r="X94" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="Y94" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Z94" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="AA94" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AB94" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="AC94" s="1">
         <v>0</v>
       </c>
       <c r="AD94">
         <f t="shared" ca="1" si="28"/>
-        <v>5.1263157894736846</v>
+        <v>6.4315789473684211</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.3">
@@ -10830,30 +10830,30 @@
       </c>
       <c r="X95" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="Y95" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="Z95" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="AA95" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AB95" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC95" s="1">
         <v>0</v>
       </c>
       <c r="AD95">
         <f t="shared" ca="1" si="28"/>
-        <v>7.7894736842105265</v>
+        <v>6.0631578947368423</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.3">
@@ -10934,30 +10934,30 @@
       </c>
       <c r="X96" s="1">
         <f ca="1">RANDBETWEEN(50,80)</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y96" s="1">
         <f t="shared" ref="Y96:AA111" ca="1" si="29">RANDBETWEEN(50,80)</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Z96" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA96" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="AB96" s="1">
         <v>0</v>
       </c>
       <c r="AC96" s="1">
         <f ca="1">RANDBETWEEN(50,80)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AD96">
         <f ca="1">(SUM(H96,K96,N96,Q96,W96,X96,Y96,Z96,AA96,AC96)/5)/9.5</f>
-        <v>8.094736842105263</v>
+        <v>8.5157894736842117</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.3">
@@ -11038,30 +11038,30 @@
       </c>
       <c r="X97" s="1">
         <f t="shared" ref="X97:AA141" ca="1" si="30">RANDBETWEEN(50,80)</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Y97" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Z97" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AA97" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AB97" s="1">
         <v>0</v>
       </c>
       <c r="AC97" s="1">
         <f t="shared" ref="AC97:AC141" ca="1" si="31">RANDBETWEEN(50,80)</f>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AD97">
         <f t="shared" ref="AD97:AD141" ca="1" si="32">(SUM(H97,K97,N97,Q97,W97,X97,Y97,Z97,AA97,AC97)/5)/9.5</f>
-        <v>8.5578947368421048</v>
+        <v>9.0631578947368414</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.3">
@@ -11142,30 +11142,30 @@
       </c>
       <c r="X98" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y98" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="Z98" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA98" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="AB98" s="1">
         <v>0</v>
       </c>
       <c r="AC98" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AD98">
         <f t="shared" ca="1" si="32"/>
-        <v>8.9578947368421051</v>
+        <v>8.3684210526315788</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.3">
@@ -11246,30 +11246,30 @@
       </c>
       <c r="X99" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Y99" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z99" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AA99" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB99" s="1">
         <v>0</v>
       </c>
       <c r="AC99" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AD99">
         <f t="shared" ca="1" si="32"/>
-        <v>8.9789473684210517</v>
+        <v>7.8842105263157904</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.3">
@@ -11350,30 +11350,30 @@
       </c>
       <c r="X100" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Y100" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="Z100" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="AA100" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="AB100" s="1">
         <v>0</v>
       </c>
       <c r="AC100" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AD100">
         <f t="shared" ca="1" si="32"/>
-        <v>8.4421052631578952</v>
+        <v>9.0736842105263165</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.3">
@@ -11454,30 +11454,30 @@
       </c>
       <c r="X101" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Y101" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z101" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA101" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AB101" s="1">
         <v>0</v>
       </c>
       <c r="AC101" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AD101">
         <f t="shared" ca="1" si="32"/>
-        <v>8.2947368421052623</v>
+        <v>8.4842105263157883</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.3">
@@ -11558,15 +11558,15 @@
       </c>
       <c r="X102" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Y102" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Z102" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AA102" s="1">
         <f t="shared" ca="1" si="29"/>
@@ -11577,11 +11577,11 @@
       </c>
       <c r="AC102" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD102">
         <f t="shared" ca="1" si="32"/>
-        <v>7.6842105263157894</v>
+        <v>8.1052631578947363</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.3">
@@ -11662,30 +11662,30 @@
       </c>
       <c r="X103" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Y103" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z103" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA103" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="AB103" s="1">
         <v>0</v>
       </c>
       <c r="AC103" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AD103">
         <f t="shared" ca="1" si="32"/>
-        <v>9.189473684210526</v>
+        <v>8.2631578947368425</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.3">
@@ -11766,30 +11766,30 @@
       </c>
       <c r="X104" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Y104" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="Z104" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="AA104" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB104" s="1">
         <v>0</v>
       </c>
       <c r="AC104" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD104">
         <f t="shared" ca="1" si="32"/>
-        <v>7.9263157894736835</v>
+        <v>9.1263157894736846</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.3">
@@ -11874,26 +11874,26 @@
       </c>
       <c r="Y105" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="Z105" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AA105" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="AB105" s="1">
         <v>0</v>
       </c>
       <c r="AC105" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AD105">
         <f t="shared" ca="1" si="32"/>
-        <v>7.7473684210526308</v>
+        <v>8.2947368421052623</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.3">
@@ -11974,30 +11974,30 @@
       </c>
       <c r="X106" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Y106" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="Z106" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA106" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AB106" s="1">
         <v>0</v>
       </c>
       <c r="AC106" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AD106">
         <f t="shared" ca="1" si="32"/>
-        <v>8.5684210526315798</v>
+        <v>7.6631578947368419</v>
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.3">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="X107" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Y107" s="1">
         <f t="shared" ca="1" si="29"/>
@@ -12086,22 +12086,22 @@
       </c>
       <c r="Z107" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AA107" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AB107" s="1">
         <v>0</v>
       </c>
       <c r="AC107" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AD107">
         <f t="shared" ca="1" si="32"/>
-        <v>8.5368421052631565</v>
+        <v>7.6947368421052627</v>
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.3">
@@ -12182,30 +12182,30 @@
       </c>
       <c r="X108" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y108" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Z108" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AA108" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AB108" s="1">
         <v>0</v>
       </c>
       <c r="AC108" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD108">
         <f t="shared" ca="1" si="32"/>
-        <v>8.1052631578947363</v>
+        <v>8.4210526315789469</v>
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.3">
@@ -12286,30 +12286,30 @@
       </c>
       <c r="X109" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="Y109" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z109" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AA109" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AB109" s="1">
         <v>0</v>
       </c>
       <c r="AC109" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AD109">
         <f t="shared" ca="1" si="32"/>
-        <v>9.1578947368421044</v>
+        <v>8.378947368421052</v>
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.3">
@@ -12390,30 +12390,30 @@
       </c>
       <c r="X110" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="Y110" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="Z110" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AA110" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB110" s="1">
         <v>0</v>
       </c>
       <c r="AC110" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="AD110">
         <f t="shared" ca="1" si="32"/>
-        <v>9.0421052631578949</v>
+        <v>8.473684210526315</v>
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.3">
@@ -12494,30 +12494,30 @@
       </c>
       <c r="X111" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="Y111" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z111" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA111" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AB111" s="1">
         <v>0</v>
       </c>
       <c r="AC111" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="AD111">
         <f t="shared" ca="1" si="32"/>
-        <v>8.0526315789473681</v>
+        <v>8.1368421052631579</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.3">
@@ -12598,26 +12598,26 @@
       </c>
       <c r="X112" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Y112" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z112" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA112" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AB112" s="1">
         <v>0</v>
       </c>
       <c r="AC112" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD112">
         <f t="shared" ca="1" si="32"/>
@@ -12702,30 +12702,30 @@
       </c>
       <c r="X113" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="Y113" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Z113" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AA113" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB113" s="1">
         <v>0</v>
       </c>
       <c r="AC113" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AD113">
         <f t="shared" ca="1" si="32"/>
-        <v>8.810526315789474</v>
+        <v>7.8842105263157904</v>
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.3">
@@ -12806,30 +12806,30 @@
       </c>
       <c r="X114" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="Y114" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z114" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AA114" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AB114" s="1">
         <v>0</v>
       </c>
       <c r="AC114" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="AD114">
         <f t="shared" ca="1" si="32"/>
-        <v>7.6631578947368419</v>
+        <v>8.8842105263157904</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.3">
@@ -12910,30 +12910,30 @@
       </c>
       <c r="X115" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Y115" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Z115" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA115" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AB115" s="1">
         <v>0</v>
       </c>
       <c r="AC115" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="AD115">
         <f t="shared" ca="1" si="32"/>
-        <v>8.2631578947368425</v>
+        <v>8.3684210526315788</v>
       </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.3">
@@ -13014,30 +13014,30 @@
       </c>
       <c r="X116" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="Y116" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Z116" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AA116" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AB116" s="1">
         <v>0</v>
       </c>
       <c r="AC116" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AD116">
         <f t="shared" ca="1" si="32"/>
-        <v>9.1368421052631579</v>
+        <v>9.0105263157894733</v>
       </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.3">
@@ -13118,30 +13118,30 @@
       </c>
       <c r="X117" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="Y117" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Z117" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA117" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AB117" s="1">
         <v>0</v>
       </c>
       <c r="AC117" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD117">
         <f t="shared" ca="1" si="32"/>
-        <v>8.4210526315789469</v>
+        <v>7.6631578947368419</v>
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.3">
@@ -13222,30 +13222,30 @@
       </c>
       <c r="X118" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="Y118" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z118" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AA118" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AB118" s="1">
         <v>0</v>
       </c>
       <c r="AC118" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AD118">
         <f t="shared" ca="1" si="32"/>
-        <v>8.9684210526315784</v>
+        <v>8.5052631578947366</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.3">
@@ -13326,30 +13326,30 @@
       </c>
       <c r="X119" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="Y119" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Z119" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="AA119" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AB119" s="1">
         <v>0</v>
       </c>
       <c r="AC119" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AD119">
         <f t="shared" ca="1" si="32"/>
-        <v>8.3473684210526304</v>
+        <v>8.5789473684210531</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.3">
@@ -13430,30 +13430,30 @@
       </c>
       <c r="X120" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Y120" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="Z120" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AA120" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AB120" s="1">
         <v>0</v>
       </c>
       <c r="AC120" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AD120">
         <f t="shared" ca="1" si="32"/>
-        <v>7.9263157894736835</v>
+        <v>9.1684210526315777</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.3">
@@ -13534,30 +13534,30 @@
       </c>
       <c r="X121" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Y121" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="Z121" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AA121" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AB121" s="1">
         <v>0</v>
       </c>
       <c r="AC121" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD121">
         <f t="shared" ca="1" si="32"/>
-        <v>8.5578947368421048</v>
+        <v>8.1368421052631579</v>
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.3">
@@ -13638,7 +13638,7 @@
       </c>
       <c r="X122" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Y122" s="1">
         <f t="shared" ca="1" si="30"/>
@@ -13646,22 +13646,22 @@
       </c>
       <c r="Z122" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AA122" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="AB122" s="1">
         <v>0</v>
       </c>
       <c r="AC122" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AD122">
         <f t="shared" ca="1" si="32"/>
-        <v>8.8842105263157904</v>
+        <v>8.2105263157894743</v>
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.3">
@@ -13742,30 +13742,30 @@
       </c>
       <c r="X123" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Y123" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Z123" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AA123" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AB123" s="1">
         <v>0</v>
       </c>
       <c r="AC123" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="AD123">
         <f t="shared" ca="1" si="32"/>
-        <v>9.0210526315789483</v>
+        <v>8.473684210526315</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.3">
@@ -13846,30 +13846,30 @@
       </c>
       <c r="X124" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="Y124" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z124" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AA124" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AB124" s="1">
         <v>0</v>
       </c>
       <c r="AC124" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="AD124">
         <f t="shared" ca="1" si="32"/>
-        <v>8.2947368421052623</v>
+        <v>7.7894736842105265</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.3">
@@ -13950,30 +13950,30 @@
       </c>
       <c r="X125" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="Y125" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Z125" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AA125" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AB125" s="1">
         <v>0</v>
       </c>
       <c r="AC125" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AD125">
         <f t="shared" ca="1" si="32"/>
-        <v>8.2105263157894743</v>
+        <v>8.7578947368421058</v>
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.3">
@@ -14054,30 +14054,30 @@
       </c>
       <c r="X126" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Y126" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="Z126" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AA126" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="AB126" s="1">
         <v>0</v>
       </c>
       <c r="AC126" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD126">
         <f t="shared" ca="1" si="32"/>
-        <v>8.9263157894736835</v>
+        <v>8.7368421052631575</v>
       </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.3">
@@ -14162,26 +14162,26 @@
       </c>
       <c r="Y127" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Z127" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AA127" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="AB127" s="1">
         <v>0</v>
       </c>
       <c r="AC127" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AD127">
         <f t="shared" ca="1" si="32"/>
-        <v>8.284210526315789</v>
+        <v>8.473684210526315</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.3">
@@ -14262,30 +14262,30 @@
       </c>
       <c r="X128" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Y128" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="Z128" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="AA128" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AB128" s="1">
         <v>0</v>
       </c>
       <c r="AC128" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AD128">
         <f t="shared" ca="1" si="32"/>
-        <v>8.473684210526315</v>
+        <v>8.7894736842105257</v>
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.3">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="X129" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Y129" s="1">
         <f t="shared" ca="1" si="30"/>
@@ -14374,22 +14374,22 @@
       </c>
       <c r="Z129" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AA129" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AB129" s="1">
         <v>0</v>
       </c>
       <c r="AC129" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="AD129">
         <f t="shared" ca="1" si="32"/>
-        <v>9.1684210526315777</v>
+        <v>8.1368421052631579</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.3">
@@ -14470,30 +14470,30 @@
       </c>
       <c r="X130" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y130" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Z130" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AA130" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB130" s="1">
         <v>0</v>
       </c>
       <c r="AC130" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="AD130">
         <f t="shared" ca="1" si="32"/>
-        <v>7.9684210526315793</v>
+        <v>8.0315789473684216</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.3">
@@ -14574,30 +14574,30 @@
       </c>
       <c r="X131" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Y131" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Z131" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AA131" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AB131" s="1">
         <v>0</v>
       </c>
       <c r="AC131" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="AD131">
         <f t="shared" ca="1" si="32"/>
-        <v>8.094736842105263</v>
+        <v>8.4526315789473685</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.3">
@@ -14678,11 +14678,11 @@
       </c>
       <c r="X132" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y132" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Z132" s="1">
         <f t="shared" ca="1" si="30"/>
@@ -14690,18 +14690,18 @@
       </c>
       <c r="AA132" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AB132" s="1">
         <v>0</v>
       </c>
       <c r="AC132" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="AD132">
         <f t="shared" ca="1" si="32"/>
-        <v>8.3473684210526304</v>
+        <v>7.4631578947368427</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.3">
@@ -14782,30 +14782,30 @@
       </c>
       <c r="X133" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y133" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="Z133" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="AA133" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AB133" s="1">
         <v>0</v>
       </c>
       <c r="AC133" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AD133">
         <f t="shared" ca="1" si="32"/>
-        <v>8.0105263157894733</v>
+        <v>7.9263157894736835</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.3">
@@ -14886,19 +14886,19 @@
       </c>
       <c r="X134" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Y134" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="Z134" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AA134" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AB134" s="1">
         <v>0</v>
@@ -14990,30 +14990,30 @@
       </c>
       <c r="X135" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Y135" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Z135" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA135" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AB135" s="1">
         <v>0</v>
       </c>
       <c r="AC135" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AD135">
         <f t="shared" ca="1" si="32"/>
-        <v>8.2105263157894743</v>
+        <v>8.0842105263157897</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.3">
@@ -15094,7 +15094,7 @@
       </c>
       <c r="X136" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y136" s="1">
         <f t="shared" ca="1" si="30"/>
@@ -15102,22 +15102,22 @@
       </c>
       <c r="Z136" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AA136" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AB136" s="1">
         <v>0</v>
       </c>
       <c r="AC136" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD136">
         <f t="shared" ca="1" si="32"/>
-        <v>8.0526315789473681</v>
+        <v>8.4105263157894736</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.3">
@@ -15198,30 +15198,30 @@
       </c>
       <c r="X137" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="Y137" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="Z137" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AA137" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AB137" s="1">
         <v>0</v>
       </c>
       <c r="AC137" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AD137">
         <f t="shared" ca="1" si="32"/>
-        <v>8.3368421052631589</v>
+        <v>7.810526315789474</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.3">
@@ -15302,30 +15302,30 @@
       </c>
       <c r="X138" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="Y138" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="Z138" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AA138" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB138" s="1">
         <v>0</v>
       </c>
       <c r="AC138" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AD138">
         <f t="shared" ca="1" si="32"/>
-        <v>8.9684210526315784</v>
+        <v>8.9263157894736835</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.3">
@@ -15406,30 +15406,30 @@
       </c>
       <c r="X139" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="Y139" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Z139" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA139" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AB139" s="1">
         <v>0</v>
       </c>
       <c r="AC139" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AD139">
         <f t="shared" ca="1" si="32"/>
-        <v>8.1157894736842096</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.3">
@@ -15510,30 +15510,30 @@
       </c>
       <c r="X140" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Y140" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Z140" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AA140" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB140" s="1">
         <v>0</v>
       </c>
       <c r="AC140" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="AD140">
         <f t="shared" ca="1" si="32"/>
-        <v>7.9368421052631586</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.3">
@@ -15614,30 +15614,30 @@
       </c>
       <c r="X141" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Y141" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="Z141" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AA141" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AB141" s="1">
         <v>0</v>
       </c>
       <c r="AC141" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="AD141">
         <f t="shared" ca="1" si="32"/>
-        <v>8.378947368421052</v>
+        <v>8.5684210526315798</v>
       </c>
     </row>
   </sheetData>
@@ -15649,8 +15649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156450F-EB07-46FF-B059-5FE49DB80A8B}">
   <dimension ref="A1:AA141"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15809,27 +15809,27 @@
       </c>
       <c r="U2">
         <f ca="1">RANDBETWEEN(30,60)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:Y9" ca="1" si="0">RANDBETWEEN(30,60)</f>
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="W2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Z2">
         <f ca="1">(SUM(H2,K2,N2,Q2,T2,U2,V2,W2,X2,Y2)/5)/9.5</f>
-        <v>6.0631578947368423</v>
+        <v>6.5052631578947366</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -15900,27 +15900,27 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U9" ca="1" si="6">RANDBETWEEN(30,60)</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z66" ca="1" si="7">(SUM(H3,K3,N3,Q3,T3,U3,V3,W3,X3,Y3)/5)/9.5</f>
-        <v>5.4421052631578952</v>
+        <v>5.4842105263157892</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
@@ -16003,15 +16003,15 @@
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4736842105263159</v>
+        <v>6.5789473684210522</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -16082,27 +16082,27 @@
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6105263157894738</v>
+        <v>6.5684210526315789</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -16173,27 +16173,27 @@
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2105263157894735</v>
+        <v>6.2315789473684218</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -16264,27 +16264,27 @@
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9894736842105258</v>
+        <v>6.6842105263157894</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -16355,11 +16355,11 @@
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="0"/>
@@ -16367,15 +16367,15 @@
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="7"/>
-        <v>5.810526315789474</v>
+        <v>6.3368421052631581</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -16446,27 +16446,27 @@
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5789473684210522</v>
+        <v>6.9368421052631586</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -16537,27 +16537,27 @@
       </c>
       <c r="U10">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V10">
         <f t="shared" ref="V10:Y16" ca="1" si="8">RANDBETWEEN(70,80)</f>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="W10">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5052631578947366</v>
+        <v>9.3157894736842106</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
@@ -16628,27 +16628,27 @@
       </c>
       <c r="U11">
         <f t="shared" ref="U11:U16" ca="1" si="9">RANDBETWEEN(70,80)</f>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="7"/>
-        <v>9.189473684210526</v>
+        <v>9.4210526315789469</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -16719,27 +16719,27 @@
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="7"/>
-        <v>9.4526315789473685</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
@@ -16810,27 +16810,27 @@
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1368421052631579</v>
+        <v>9.1157894736842096</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
@@ -16901,19 +16901,19 @@
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="W14">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X14">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y14">
         <f t="shared" ca="1" si="8"/>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="Z14">
         <f t="shared" ca="1" si="7"/>
-        <v>9.2315789473684209</v>
+        <v>9.2105263157894743</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
@@ -16992,7 +16992,7 @@
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="8"/>
@@ -17000,19 +17000,19 @@
       </c>
       <c r="W15">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X15">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y15">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z15">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1789473684210527</v>
+        <v>9.3052631578947373</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -17083,11 +17083,11 @@
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W16">
         <f t="shared" ca="1" si="8"/>
@@ -17095,15 +17095,15 @@
       </c>
       <c r="X16">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y16">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Z16">
         <f t="shared" ca="1" si="7"/>
-        <v>9.2105263157894743</v>
+        <v>9.3368421052631589</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -17178,15 +17178,15 @@
       </c>
       <c r="V17">
         <f t="shared" ref="V17:Y18" ca="1" si="10">RANDBETWEEN(75,80)</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W17">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X17">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y17">
         <f t="shared" ca="1" si="10"/>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="Z17">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5578947368421048</v>
+        <v>9.5368421052631565</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -17265,27 +17265,27 @@
       </c>
       <c r="U18">
         <f ca="1">RANDBETWEEN(75,80)</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W18">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X18">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z18">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8526315789473671</v>
+        <v>9.7684210526315791</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -17356,27 +17356,27 @@
       </c>
       <c r="U19">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19:Y25" ca="1" si="11">RANDBETWEEN(10,50)</f>
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="W19">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="X19">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Y19">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Z19">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3894736842105262</v>
+        <v>5.1684210526315795</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
@@ -17447,27 +17447,27 @@
       </c>
       <c r="U20">
         <f t="shared" ref="U20:U25" ca="1" si="12">RANDBETWEEN(10,50)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="W20">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="X20">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="Y20">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="Z20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3894736842105262</v>
+        <v>4.4947368421052634</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -17538,27 +17538,27 @@
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="W21">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="X21">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Z21">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3578947368421055</v>
+        <v>3.5473684210526319</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -17629,27 +17629,27 @@
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="W22">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X22">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y22">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Z22">
         <f t="shared" ca="1" si="7"/>
-        <v>3.736842105263158</v>
+        <v>4.7473684210526317</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
@@ -17720,27 +17720,27 @@
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="W23">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X23">
         <f t="shared" ca="1" si="11"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Y23">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z23">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5157894736842108</v>
+        <v>4.2736842105263158</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -17811,27 +17811,27 @@
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="W24">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="X24">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Z24">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9684210526315793</v>
+        <v>5.4105263157894736</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -17902,27 +17902,27 @@
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="W25">
         <f t="shared" ca="1" si="11"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X25">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y25">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Z25">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5157894736842108</v>
+        <v>4.3578947368421055</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -17993,27 +17993,27 @@
       </c>
       <c r="U26">
         <f ca="1">RANDBETWEEN(30,80)</f>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="V26">
         <f t="shared" ref="V26:Y41" ca="1" si="13">RANDBETWEEN(30,80)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9052631578947361</v>
+        <v>5.7473684210526317</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -18084,27 +18084,27 @@
       </c>
       <c r="U27">
         <f t="shared" ref="U27:Y43" ca="1" si="14">RANDBETWEEN(30,80)</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="X27">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4421052631578952</v>
+        <v>7.7473684210526308</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -18175,27 +18175,27 @@
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="W28">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X28">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9894736842105267</v>
+        <v>7.6421052631578945</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -18266,27 +18266,27 @@
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="W29">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="X29">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Y29">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Z29">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5578947368421048</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -18357,27 +18357,27 @@
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="W30">
         <f t="shared" ca="1" si="13"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="X30">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y30">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="Z30">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2210526315789476</v>
+        <v>6.094736842105263</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -18448,27 +18448,27 @@
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="13"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="13"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6000000000000005</v>
+        <v>7.4526315789473685</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -18539,27 +18539,27 @@
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8315789473684214</v>
+        <v>7.2631578947368425</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
@@ -18630,27 +18630,27 @@
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2000000000000011</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
@@ -18721,23 +18721,23 @@
       </c>
       <c r="U34">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="V34">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="W34">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="X34">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Y34">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Z34">
         <f t="shared" ca="1" si="7"/>
@@ -18812,27 +18812,27 @@
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Y35">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9684210526315793</v>
+        <v>8.8315789473684223</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -18903,27 +18903,27 @@
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="X36">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8842105263157904</v>
+        <v>7.7263157894736851</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
@@ -18994,27 +18994,27 @@
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4105263157894736</v>
+        <v>8.3052631578947373</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
@@ -19085,27 +19085,27 @@
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6947368421052635</v>
+        <v>5.7263157894736842</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -19176,27 +19176,27 @@
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2421052631578942</v>
+        <v>7.2526315789473692</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -19267,27 +19267,27 @@
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3999999999999995</v>
+        <v>8.905263157894737</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -19358,27 +19358,27 @@
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2</v>
+        <v>7.3052631578947373</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
@@ -19449,27 +19449,27 @@
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="Y42">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5473684210526315</v>
+        <v>8.3894736842105271</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
@@ -19540,27 +19540,27 @@
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1684210526315786</v>
+        <v>7.8421052631578947</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -19631,27 +19631,27 @@
       </c>
       <c r="U44">
         <f t="shared" ref="U44:Y94" ca="1" si="15">RANDBETWEEN(30,80)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="V44">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="W44">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="X44">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Y44">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Z44">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8421052631578947</v>
+        <v>7.4421052631578952</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -19722,27 +19722,27 @@
       </c>
       <c r="U45">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V45">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="W45">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X45">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="Y45">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="Z45">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6315789473684212</v>
+        <v>8.1473684210526329</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -19813,27 +19813,27 @@
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0842105263157888</v>
+        <v>6.7263157894736842</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
@@ -19904,27 +19904,27 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="15"/>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7684210526315782</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
@@ -19995,27 +19995,27 @@
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6105263157894738</v>
+        <v>7.1684210526315786</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
@@ -20086,27 +20086,27 @@
       </c>
       <c r="U49">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="W49">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="X49">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Y49">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Z49">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4947368421052634</v>
+        <v>7.6000000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
@@ -20177,27 +20177,27 @@
       </c>
       <c r="U50">
         <f t="shared" ca="1" si="15"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="W50">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X50">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Y50">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z50">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2315789473684218</v>
+        <v>6.7894736842105265</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
@@ -20268,27 +20268,27 @@
       </c>
       <c r="U51">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="15"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="W51">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="X51">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Y51">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="Z51">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1473684210526329</v>
+        <v>7.1368421052631579</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -20359,27 +20359,27 @@
       </c>
       <c r="U52">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="V52">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="W52">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="X52">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y52">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="Z52">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0105263157894733</v>
+        <v>8.3052631578947373</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -20450,27 +20450,27 @@
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="15"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="W53">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="X53">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Y53">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z53">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5894736842105255</v>
+        <v>7.2315789473684218</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
@@ -20541,27 +20541,27 @@
       </c>
       <c r="U54">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="V54">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="W54">
         <f t="shared" ca="1" si="15"/>
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X54">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y54">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="Z54">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3473684210526304</v>
+        <v>8.3263157894736839</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -20632,27 +20632,27 @@
       </c>
       <c r="U55">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V55">
         <f t="shared" ca="1" si="15"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="W55">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="X55">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Y55">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="Z55">
         <f t="shared" ca="1" si="7"/>
-        <v>7.810526315789474</v>
+        <v>7.7684210526315782</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
@@ -20723,27 +20723,27 @@
       </c>
       <c r="U56">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="V56">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="W56">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X56">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Y56">
         <f t="shared" ca="1" si="15"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Z56">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0736842105263165</v>
+        <v>7.5684210526315798</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
@@ -20814,27 +20814,27 @@
       </c>
       <c r="U57">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="V57">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="W57">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="X57">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Y57">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Z57">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0210526315789474</v>
+        <v>7.2210526315789467</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
@@ -20905,27 +20905,27 @@
       </c>
       <c r="U58">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V58">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="W58">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="X58">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Y58">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Z58">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1368421052631579</v>
+        <v>6.7578947368421058</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
@@ -20996,27 +20996,27 @@
       </c>
       <c r="U59">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="V59">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="W59">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X59">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y59">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="Z59">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0842105263157888</v>
+        <v>7.4421052631578952</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
@@ -21087,27 +21087,27 @@
       </c>
       <c r="U60">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="V60">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="W60">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="X60">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="Y60">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Z60">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2210526315789476</v>
+        <v>7.7368421052631575</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
@@ -21178,27 +21178,27 @@
       </c>
       <c r="U61">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="W61">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="X61">
         <f t="shared" ca="1" si="15"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y61">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="Z61">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0842105263157888</v>
+        <v>7.6105263157894738</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
@@ -21269,27 +21269,27 @@
       </c>
       <c r="U62">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="W62">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="X62">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Y62">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z62">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5789473684210522</v>
+        <v>7.5684210526315798</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
@@ -21360,27 +21360,27 @@
       </c>
       <c r="U63">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="15"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W63">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="X63">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="Y63">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Z63">
         <f t="shared" ca="1" si="7"/>
-        <v>8.378947368421052</v>
+        <v>7.4526315789473685</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
@@ -21451,27 +21451,27 @@
       </c>
       <c r="U64">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="W64">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X64">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Y64">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Z64">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4631578947368418</v>
+        <v>8.189473684210526</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
@@ -21542,7 +21542,7 @@
       </c>
       <c r="U65">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="15"/>
@@ -21550,19 +21550,19 @@
       </c>
       <c r="W65">
         <f t="shared" ca="1" si="15"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X65">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="Y65">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Z65">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6210526315789471</v>
+        <v>7.6947368421052627</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -21633,27 +21633,27 @@
       </c>
       <c r="U66">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="V66">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W66">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="X66">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Y66">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="Z66">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6842105263157894</v>
+        <v>7.0105263157894733</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
@@ -21724,27 +21724,27 @@
       </c>
       <c r="U67">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="V67">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="W67">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X67">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="Y67">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="Z67">
         <f t="shared" ref="Z67:Z130" ca="1" si="21">(SUM(H67,K67,N67,Q67,T67,U67,V67,W67,X67,Y67)/5)/9.5</f>
-        <v>6.9157894736842112</v>
+        <v>7.189473684210526</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
@@ -21815,27 +21815,27 @@
       </c>
       <c r="U68">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="V68">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W68">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="X68">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="Y68">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Z68">
         <f t="shared" ca="1" si="21"/>
-        <v>6.2210526315789476</v>
+        <v>8.094736842105263</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
@@ -21906,27 +21906,27 @@
       </c>
       <c r="U69">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="V69">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="W69">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="X69">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Y69">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Z69">
         <f t="shared" ca="1" si="21"/>
-        <v>6.9263157894736835</v>
+        <v>7.9789473684210526</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
@@ -21997,27 +21997,27 @@
       </c>
       <c r="U70">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="V70">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W70">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="X70">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Y70">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Z70">
         <f t="shared" ca="1" si="21"/>
-        <v>7.0947368421052639</v>
+        <v>7.0736842105263165</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
@@ -22092,23 +22092,23 @@
       </c>
       <c r="V71">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="W71">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="X71">
         <f t="shared" ca="1" si="15"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Y71">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Z71">
         <f t="shared" ca="1" si="21"/>
-        <v>7.6526315789473687</v>
+        <v>8.1578947368421044</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
@@ -22179,27 +22179,27 @@
       </c>
       <c r="U72">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="V72">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="W72">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="X72">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Y72">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Z72">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3578947368421055</v>
+        <v>6.6315789473684212</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
@@ -22270,27 +22270,27 @@
       </c>
       <c r="U73">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="V73">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="W73">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X73">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="Y73">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z73">
         <f t="shared" ca="1" si="21"/>
-        <v>7.5263157894736841</v>
+        <v>8.4315789473684202</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
@@ -22361,27 +22361,27 @@
       </c>
       <c r="U74">
         <f t="shared" ca="1" si="15"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V74">
         <f t="shared" ca="1" si="15"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="W74">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="X74">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="Y74">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z74">
         <f t="shared" ca="1" si="21"/>
-        <v>8.621052631578948</v>
+        <v>7.4421052631578952</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
@@ -22452,27 +22452,27 @@
       </c>
       <c r="U75">
         <f t="shared" ca="1" si="15"/>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="V75">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="W75">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="X75">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Y75">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="Z75">
         <f t="shared" ca="1" si="21"/>
-        <v>7.1578947368421053</v>
+        <v>7.4526315789473685</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
@@ -22543,27 +22543,27 @@
       </c>
       <c r="U76">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="V76">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="W76">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X76">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Y76">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Z76">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3473684210526313</v>
+        <v>5.7578947368421058</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
@@ -22634,27 +22634,27 @@
       </c>
       <c r="U77">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V77">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="W77">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="X77">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="Y77">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Z77">
         <f t="shared" ca="1" si="21"/>
-        <v>6.6842105263157894</v>
+        <v>7.8631578947368421</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
@@ -22725,27 +22725,27 @@
       </c>
       <c r="U78">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="V78">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W78">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="X78">
         <f t="shared" ca="1" si="15"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="Y78">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z78">
         <f t="shared" ca="1" si="21"/>
-        <v>7.9789473684210526</v>
+        <v>8.378947368421052</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
@@ -22816,27 +22816,27 @@
       </c>
       <c r="U79">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="V79">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="W79">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="X79">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y79">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Z79">
         <f t="shared" ca="1" si="21"/>
-        <v>7.852631578947368</v>
+        <v>7.7684210526315782</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
@@ -22907,27 +22907,27 @@
       </c>
       <c r="U80">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="V80">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="W80">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X80">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y80">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="Z80">
         <f t="shared" ca="1" si="21"/>
-        <v>6.8947368421052628</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -22998,27 +22998,27 @@
       </c>
       <c r="U81">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V81">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W81">
         <f t="shared" ca="1" si="15"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="X81">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="Y81">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="Z81">
         <f t="shared" ca="1" si="21"/>
-        <v>8.4</v>
+        <v>7.9368421052631586</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
@@ -23089,27 +23089,27 @@
       </c>
       <c r="U82">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="V82">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="W82">
         <f t="shared" ca="1" si="15"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="X82">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y82">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Z82">
         <f t="shared" ca="1" si="21"/>
-        <v>6.6631578947368419</v>
+        <v>6.852631578947368</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
@@ -23180,27 +23180,27 @@
       </c>
       <c r="U83">
         <f t="shared" ca="1" si="15"/>
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V83">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="W83">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="X83">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Y83">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="Z83">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>6.9157894736842112</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
@@ -23271,27 +23271,27 @@
       </c>
       <c r="U84">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V84">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="W84">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="X84">
         <f t="shared" ca="1" si="15"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Y84">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z84">
         <f t="shared" ca="1" si="21"/>
-        <v>7.0947368421052639</v>
+        <v>7.8947368421052628</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
@@ -23362,27 +23362,27 @@
       </c>
       <c r="U85">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V85">
         <f t="shared" ca="1" si="15"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="W85">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="X85">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Y85">
         <f t="shared" ca="1" si="15"/>
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="Z85">
         <f t="shared" ca="1" si="21"/>
-        <v>8.6421052631578945</v>
+        <v>7.1263157894736846</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -23453,27 +23453,27 @@
       </c>
       <c r="U86">
         <f t="shared" ca="1" si="15"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="V86">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="W86">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X86">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y86">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="Z86">
         <f t="shared" ca="1" si="21"/>
-        <v>8.0526315789473681</v>
+        <v>8.4315789473684202</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
@@ -23544,27 +23544,27 @@
       </c>
       <c r="U87">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="V87">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="W87">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="X87">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Y87">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Z87">
         <f t="shared" ca="1" si="21"/>
-        <v>6.0736842105263165</v>
+        <v>6.9789473684210526</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
@@ -23635,27 +23635,27 @@
       </c>
       <c r="U88">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V88">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="W88">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X88">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y88">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z88">
         <f t="shared" ca="1" si="21"/>
-        <v>6.810526315789474</v>
+        <v>8.2421052631578942</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -23726,27 +23726,27 @@
       </c>
       <c r="U89">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V89">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="W89">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="X89">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y89">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Z89">
         <f t="shared" ca="1" si="21"/>
-        <v>7.7052631578947368</v>
+        <v>8.2315789473684209</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -23817,27 +23817,27 @@
       </c>
       <c r="U90">
         <f t="shared" ca="1" si="15"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="V90">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="W90">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="X90">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Y90">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="Z90">
         <f t="shared" ca="1" si="21"/>
-        <v>7.378947368421052</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -23908,27 +23908,27 @@
       </c>
       <c r="U91">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="V91">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="W91">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="X91">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="Y91">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="Z91">
         <f t="shared" ca="1" si="21"/>
-        <v>7.0421052631578958</v>
+        <v>9.5684210526315798</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
@@ -23999,27 +23999,27 @@
       </c>
       <c r="U92">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="V92">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W92">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="X92">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y92">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="Z92">
         <f t="shared" ca="1" si="21"/>
-        <v>7.6000000000000005</v>
+        <v>6.7368421052631575</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
@@ -24090,27 +24090,27 @@
       </c>
       <c r="U93">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V93">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="W93">
         <f t="shared" ca="1" si="15"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X93">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="Y93">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="Z93">
         <f t="shared" ca="1" si="21"/>
-        <v>8.4421052631578952</v>
+        <v>7.3473684210526313</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -24181,27 +24181,27 @@
       </c>
       <c r="U94">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="V94">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="W94">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="X94">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y94">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="Z94">
         <f t="shared" ca="1" si="21"/>
-        <v>6.8736842105263154</v>
+        <v>8.1789473684210527</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
@@ -24272,27 +24272,27 @@
       </c>
       <c r="U95">
         <f t="shared" ref="U95:Y141" ca="1" si="22">RANDBETWEEN(30,80)</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="V95">
         <f t="shared" ca="1" si="22"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="W95">
         <f t="shared" ca="1" si="22"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X95">
         <f t="shared" ca="1" si="22"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Y95">
         <f t="shared" ca="1" si="22"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="Z95">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3052631578947365</v>
+        <v>6.7263157894736842</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -24363,27 +24363,27 @@
       </c>
       <c r="U96">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="V96">
         <f t="shared" ca="1" si="22"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="W96">
         <f t="shared" ca="1" si="22"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="X96">
         <f t="shared" ca="1" si="22"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Y96">
         <f t="shared" ca="1" si="22"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z96">
         <f t="shared" ca="1" si="21"/>
-        <v>7.0210526315789474</v>
+        <v>6.9368421052631586</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
@@ -24454,27 +24454,27 @@
       </c>
       <c r="U97">
         <f t="shared" ca="1" si="22"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="V97">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="W97">
         <f t="shared" ca="1" si="22"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X97">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Y97">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="Z97">
         <f t="shared" ca="1" si="21"/>
-        <v>8.189473684210526</v>
+        <v>7.7684210526315782</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -24545,27 +24545,27 @@
       </c>
       <c r="U98">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V98">
         <f t="shared" ca="1" si="22"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="W98">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="X98">
         <f t="shared" ca="1" si="22"/>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Y98">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Z98">
         <f t="shared" ca="1" si="21"/>
-        <v>7.3368421052631581</v>
+        <v>6.3894736842105262</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
@@ -24636,27 +24636,27 @@
       </c>
       <c r="U99">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="V99">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="W99">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X99">
         <f t="shared" ca="1" si="22"/>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="Y99">
         <f t="shared" ca="1" si="22"/>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Z99">
         <f t="shared" ca="1" si="21"/>
-        <v>6.5263157894736841</v>
+        <v>7.0105263157894733</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
@@ -24727,27 +24727,27 @@
       </c>
       <c r="U100">
         <f t="shared" ca="1" si="22"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="V100">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="W100">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X100">
         <f t="shared" ca="1" si="22"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Y100">
         <f t="shared" ca="1" si="22"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Z100">
         <f t="shared" ca="1" si="21"/>
-        <v>6.1578947368421053</v>
+        <v>6.6210526315789471</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
@@ -24818,27 +24818,27 @@
       </c>
       <c r="U101">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="V101">
         <f t="shared" ca="1" si="22"/>
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="W101">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="X101">
         <f t="shared" ca="1" si="22"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Y101">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="Z101">
         <f t="shared" ca="1" si="21"/>
-        <v>8.189473684210526</v>
+        <v>7.3684210526315788</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
@@ -24909,27 +24909,27 @@
       </c>
       <c r="U102">
         <f t="shared" ca="1" si="22"/>
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="V102">
         <f t="shared" ca="1" si="22"/>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="W102">
         <f t="shared" ca="1" si="22"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="X102">
         <f t="shared" ca="1" si="22"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Y102">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Z102">
         <f t="shared" ca="1" si="21"/>
-        <v>6.9684210526315793</v>
+        <v>6.9052631578947361</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
@@ -25000,27 +25000,27 @@
       </c>
       <c r="U103">
         <f t="shared" ca="1" si="22"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="V103">
         <f t="shared" ca="1" si="22"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W103">
         <f t="shared" ca="1" si="22"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X103">
         <f t="shared" ca="1" si="22"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y103">
         <f t="shared" ca="1" si="22"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Z103">
         <f t="shared" ca="1" si="21"/>
-        <v>7.4631578947368427</v>
+        <v>7.147368421052632</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
@@ -25091,15 +25091,15 @@
       </c>
       <c r="U104">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="V104">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="W104">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="X104">
         <f t="shared" ca="1" si="22"/>
@@ -25107,11 +25107,11 @@
       </c>
       <c r="Y104">
         <f t="shared" ca="1" si="22"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Z104">
         <f t="shared" ca="1" si="21"/>
-        <v>6.2947368421052632</v>
+        <v>7.9368421052631586</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
@@ -25182,27 +25182,27 @@
       </c>
       <c r="U105">
         <f t="shared" ca="1" si="22"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V105">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="W105">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X105">
         <f t="shared" ca="1" si="22"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Y105">
         <f t="shared" ca="1" si="22"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Z105">
         <f t="shared" ca="1" si="21"/>
-        <v>7.4631578947368427</v>
+        <v>8.3263157894736839</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
@@ -25273,27 +25273,27 @@
       </c>
       <c r="U106">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="V106">
         <f t="shared" ca="1" si="22"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W106">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="X106">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="Y106">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z106">
         <f t="shared" ca="1" si="21"/>
-        <v>6.6421052631578945</v>
+        <v>8.2631578947368425</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
@@ -25364,27 +25364,27 @@
       </c>
       <c r="U107">
         <f t="shared" ca="1" si="22"/>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="V107">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W107">
         <f t="shared" ca="1" si="22"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="X107">
         <f t="shared" ca="1" si="22"/>
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="Y107">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="Z107">
         <f t="shared" ca="1" si="21"/>
-        <v>8.2105263157894743</v>
+        <v>6.4210526315789478</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
@@ -25455,19 +25455,19 @@
       </c>
       <c r="U108">
         <f t="shared" ca="1" si="22"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="V108">
         <f t="shared" ca="1" si="22"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="W108">
         <f t="shared" ca="1" si="22"/>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="X108">
         <f t="shared" ca="1" si="22"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y108">
         <f t="shared" ca="1" si="22"/>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="Z108">
         <f t="shared" ca="1" si="21"/>
-        <v>7.6421052631578945</v>
+        <v>7.621052631578948</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
@@ -25546,27 +25546,27 @@
       </c>
       <c r="U109">
         <f t="shared" ca="1" si="22"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="V109">
         <f t="shared" ca="1" si="22"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="W109">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="X109">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="Y109">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="Z109">
         <f t="shared" ca="1" si="21"/>
-        <v>6.9368421052631586</v>
+        <v>8.5789473684210531</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
@@ -25637,27 +25637,27 @@
       </c>
       <c r="U110">
         <f t="shared" ca="1" si="22"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="V110">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="W110">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="X110">
         <f t="shared" ca="1" si="22"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Y110">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="Z110">
         <f t="shared" ca="1" si="21"/>
-        <v>8.3578947368421055</v>
+        <v>7.2421052631578942</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
@@ -25728,27 +25728,27 @@
       </c>
       <c r="U111">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="V111">
         <f t="shared" ca="1" si="22"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="W111">
         <f t="shared" ca="1" si="22"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="X111">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Y111">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z111">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3263157894736848</v>
+        <v>8.2421052631578942</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
@@ -25819,27 +25819,27 @@
       </c>
       <c r="U112">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V112">
         <f t="shared" ca="1" si="22"/>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="W112">
         <f t="shared" ca="1" si="22"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X112">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y112">
         <f t="shared" ca="1" si="22"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Z112">
         <f t="shared" ca="1" si="21"/>
-        <v>6.6105263157894738</v>
+        <v>7.4947368421052634</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
@@ -25910,27 +25910,27 @@
       </c>
       <c r="U113">
         <f t="shared" ca="1" si="22"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V113">
         <f t="shared" ca="1" si="22"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="W113">
         <f t="shared" ca="1" si="22"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="X113">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="Y113">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Z113">
         <f t="shared" ca="1" si="21"/>
-        <v>7.5789473684210522</v>
+        <v>7.3052631578947373</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
@@ -26001,27 +26001,27 @@
       </c>
       <c r="U114">
         <f t="shared" ca="1" si="22"/>
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="V114">
         <f t="shared" ca="1" si="22"/>
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="W114">
         <f t="shared" ca="1" si="22"/>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="X114">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Y114">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="Z114">
         <f t="shared" ca="1" si="21"/>
-        <v>7.8631578947368421</v>
+        <v>6.6210526315789471</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
@@ -26092,27 +26092,27 @@
       </c>
       <c r="U115">
         <f t="shared" ca="1" si="22"/>
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="V115">
         <f t="shared" ca="1" si="22"/>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="W115">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X115">
         <f t="shared" ca="1" si="22"/>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="Y115">
         <f t="shared" ca="1" si="22"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Z115">
         <f t="shared" ca="1" si="21"/>
-        <v>6.4105263157894736</v>
+        <v>8.8315789473684223</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
@@ -26183,27 +26183,27 @@
       </c>
       <c r="U116">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="V116">
         <f t="shared" ca="1" si="22"/>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="W116">
         <f t="shared" ca="1" si="22"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="X116">
         <f t="shared" ca="1" si="22"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y116">
         <f t="shared" ca="1" si="22"/>
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="Z116">
         <f t="shared" ca="1" si="21"/>
-        <v>6.7578947368421058</v>
+        <v>6.6105263157894738</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
@@ -26274,27 +26274,27 @@
       </c>
       <c r="U117">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="V117">
         <f t="shared" ca="1" si="22"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="W117">
         <f t="shared" ca="1" si="22"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="X117">
         <f t="shared" ca="1" si="22"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y117">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="Z117">
         <f t="shared" ca="1" si="21"/>
-        <v>6.810526315789474</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
@@ -26365,27 +26365,27 @@
       </c>
       <c r="U118">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V118">
         <f t="shared" ca="1" si="22"/>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="W118">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="X118">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="Y118">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="Z118">
         <f t="shared" ca="1" si="21"/>
-        <v>7.1263157894736846</v>
+        <v>7.8631578947368421</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
@@ -26456,27 +26456,27 @@
       </c>
       <c r="U119">
         <f t="shared" ca="1" si="22"/>
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="V119">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="W119">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="X119">
         <f t="shared" ca="1" si="22"/>
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Y119">
         <f t="shared" ca="1" si="22"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="Z119">
         <f t="shared" ca="1" si="21"/>
-        <v>6.9894736842105267</v>
+        <v>7.3473684210526313</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
@@ -26547,27 +26547,27 @@
       </c>
       <c r="U120">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="V120">
         <f t="shared" ca="1" si="22"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W120">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="X120">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Y120">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="Z120">
         <f t="shared" ca="1" si="21"/>
-        <v>9.2947368421052623</v>
+        <v>6.7052631578947368</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
@@ -26638,27 +26638,27 @@
       </c>
       <c r="U121">
         <f t="shared" ca="1" si="22"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V121">
         <f t="shared" ca="1" si="22"/>
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="W121">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X121">
         <f t="shared" ca="1" si="22"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Y121">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Z121">
         <f t="shared" ca="1" si="21"/>
-        <v>7.4421052631578952</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -26729,19 +26729,19 @@
       </c>
       <c r="U122">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="V122">
         <f t="shared" ca="1" si="22"/>
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="W122">
         <f t="shared" ca="1" si="22"/>
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="X122">
         <f t="shared" ca="1" si="22"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="Y122">
         <f t="shared" ca="1" si="22"/>
@@ -26749,7 +26749,7 @@
       </c>
       <c r="Z122">
         <f t="shared" ca="1" si="21"/>
-        <v>8.6947368421052627</v>
+        <v>7.0105263157894733</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -26820,27 +26820,27 @@
       </c>
       <c r="U123">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="V123">
         <f t="shared" ca="1" si="22"/>
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="W123">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="X123">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Y123">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Z123">
         <f t="shared" ca="1" si="21"/>
-        <v>7.2526315789473692</v>
+        <v>6.7052631578947368</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
@@ -26911,27 +26911,27 @@
       </c>
       <c r="U124">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="V124">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="W124">
         <f t="shared" ca="1" si="22"/>
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="X124">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y124">
         <f t="shared" ca="1" si="22"/>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Z124">
         <f t="shared" ca="1" si="21"/>
-        <v>8.905263157894737</v>
+        <v>7.3052631578947373</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -27002,27 +27002,27 @@
       </c>
       <c r="U125">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="V125">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="W125">
         <f t="shared" ca="1" si="22"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X125">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Y125">
         <f t="shared" ca="1" si="22"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Z125">
         <f t="shared" ca="1" si="21"/>
-        <v>7.6631578947368419</v>
+        <v>6.9052631578947361</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
@@ -27093,27 +27093,27 @@
       </c>
       <c r="U126">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="V126">
         <f t="shared" ca="1" si="22"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="W126">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="X126">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Y126">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z126">
         <f t="shared" ca="1" si="21"/>
-        <v>5.810526315789474</v>
+        <v>6.9894736842105267</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
@@ -27184,27 +27184,27 @@
       </c>
       <c r="U127">
         <f t="shared" ca="1" si="22"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="V127">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="W127">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="X127">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="Y127">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="Z127">
         <f t="shared" ca="1" si="21"/>
-        <v>6.6947368421052635</v>
+        <v>8.2736842105263158</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="U128">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="V128">
         <f t="shared" ca="1" si="22"/>
@@ -27283,11 +27283,11 @@
       </c>
       <c r="W128">
         <f t="shared" ca="1" si="22"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="X128">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y128">
         <f t="shared" ca="1" si="22"/>
@@ -27295,7 +27295,7 @@
       </c>
       <c r="Z128">
         <f t="shared" ca="1" si="21"/>
-        <v>7.147368421052632</v>
+        <v>6.7052631578947368</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
@@ -27366,27 +27366,27 @@
       </c>
       <c r="U129">
         <f t="shared" ca="1" si="22"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V129">
         <f t="shared" ca="1" si="22"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="W129">
         <f t="shared" ca="1" si="22"/>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="X129">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Y129">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z129">
         <f t="shared" ca="1" si="21"/>
-        <v>7.3578947368421055</v>
+        <v>7.6526315789473687</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
@@ -27457,27 +27457,27 @@
       </c>
       <c r="U130">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="V130">
         <f t="shared" ca="1" si="22"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="W130">
         <f t="shared" ca="1" si="22"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="X130">
         <f t="shared" ca="1" si="22"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="Y130">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Z130">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1578947368421053</v>
+        <v>7.7263157894736851</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
@@ -27548,27 +27548,27 @@
       </c>
       <c r="U131">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V131">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="W131">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="X131">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="Y131">
         <f t="shared" ca="1" si="22"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z131">
         <f t="shared" ref="Z131:Z141" ca="1" si="28">(SUM(H131,K131,N131,Q131,T131,U131,V131,W131,X131,Y131)/5)/9.5</f>
-        <v>8.378947368421052</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
@@ -27639,27 +27639,27 @@
       </c>
       <c r="U132">
         <f t="shared" ca="1" si="22"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="V132">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="W132">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="X132">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="Y132">
         <f t="shared" ca="1" si="22"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z132">
         <f t="shared" ca="1" si="28"/>
-        <v>6.5052631578947366</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
@@ -27730,27 +27730,27 @@
       </c>
       <c r="U133">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="V133">
         <f t="shared" ca="1" si="22"/>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="W133">
         <f t="shared" ca="1" si="22"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="X133">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y133">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="Z133">
         <f t="shared" ca="1" si="28"/>
-        <v>7.5684210526315798</v>
+        <v>8.1157894736842096</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
@@ -27821,27 +27821,27 @@
       </c>
       <c r="U134">
         <f t="shared" ca="1" si="22"/>
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="V134">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="W134">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="X134">
         <f t="shared" ca="1" si="22"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Y134">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z134">
         <f t="shared" ca="1" si="28"/>
-        <v>5.905263157894737</v>
+        <v>8.621052631578948</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
@@ -27912,27 +27912,27 @@
       </c>
       <c r="U135">
         <f t="shared" ca="1" si="22"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="V135">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W135">
         <f t="shared" ca="1" si="22"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="X135">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y135">
         <f t="shared" ca="1" si="22"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Z135">
         <f t="shared" ca="1" si="28"/>
-        <v>8.9789473684210517</v>
+        <v>7.2526315789473692</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
@@ -28003,27 +28003,27 @@
       </c>
       <c r="U136">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="V136">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="W136">
         <f t="shared" ca="1" si="22"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="X136">
         <f t="shared" ca="1" si="22"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Y136">
         <f t="shared" ca="1" si="22"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Z136">
         <f t="shared" ca="1" si="28"/>
-        <v>7.4842105263157892</v>
+        <v>7.8631578947368421</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
@@ -28094,27 +28094,27 @@
       </c>
       <c r="U137">
         <f t="shared" ca="1" si="22"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="V137">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="W137">
         <f t="shared" ca="1" si="22"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="X137">
         <f t="shared" ca="1" si="22"/>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="Y137">
         <f t="shared" ca="1" si="22"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Z137">
         <f t="shared" ca="1" si="28"/>
-        <v>6.8842105263157904</v>
+        <v>6.8210526315789473</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
@@ -28185,27 +28185,27 @@
       </c>
       <c r="U138">
         <f t="shared" ca="1" si="22"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="V138">
         <f t="shared" ca="1" si="22"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="W138">
         <f t="shared" ca="1" si="22"/>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="X138">
         <f t="shared" ca="1" si="22"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="Y138">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="Z138">
         <f t="shared" ca="1" si="28"/>
-        <v>7.3999999999999995</v>
+        <v>7.7578947368421058</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
@@ -28276,27 +28276,27 @@
       </c>
       <c r="U139">
         <f t="shared" ca="1" si="22"/>
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="V139">
         <f t="shared" ca="1" si="22"/>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="W139">
         <f t="shared" ca="1" si="22"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X139">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y139">
         <f t="shared" ca="1" si="22"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Z139">
         <f t="shared" ca="1" si="28"/>
-        <v>6.5473684210526315</v>
+        <v>8.0210526315789483</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
@@ -28367,27 +28367,27 @@
       </c>
       <c r="U140">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="V140">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="W140">
         <f t="shared" ca="1" si="22"/>
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X140">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Y140">
         <f t="shared" ca="1" si="22"/>
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="Z140">
         <f t="shared" ca="1" si="28"/>
-        <v>8.189473684210526</v>
+        <v>7.0947368421052639</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
@@ -28458,27 +28458,27 @@
       </c>
       <c r="U141">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="V141">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="W141">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="X141">
         <f t="shared" ca="1" si="22"/>
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="Y141">
         <f t="shared" ca="1" si="22"/>
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="Z141">
         <f t="shared" ca="1" si="28"/>
-        <v>6.7052631578947368</v>
+        <v>8.2631578947368425</v>
       </c>
     </row>
   </sheetData>
